--- a/inst/extdata/project_info.xlsx
+++ b/inst/extdata/project_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swaglife/XRF/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999E7BF-0D01-144F-B18D-1EC1CE0FD737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA52F47-2903-3843-AB37-EB04E72826FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="26340" windowHeight="13920" xr2:uid="{C35C691E-D9CF-F84A-96F1-AD77D291FD53}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/inst/extdata/project_info.xlsx
+++ b/inst/extdata/project_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swaglife/XRF/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA52F47-2903-3843-AB37-EB04E72826FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A43107-A1BB-DD40-A905-E73B9A0A87AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="26340" windowHeight="13920" xr2:uid="{C35C691E-D9CF-F84A-96F1-AD77D291FD53}"/>
   </bookViews>
@@ -119,168 +119,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>COM1</t>
-  </si>
-  <si>
-    <t>COM2</t>
-  </si>
-  <si>
-    <t>COM3</t>
-  </si>
-  <si>
-    <t>COM4</t>
-  </si>
-  <si>
-    <t>COM5</t>
-  </si>
-  <si>
-    <t>COM6</t>
-  </si>
-  <si>
-    <t>COM7</t>
-  </si>
-  <si>
-    <t>COM8</t>
-  </si>
-  <si>
-    <t>COM9</t>
-  </si>
-  <si>
-    <t>COM10</t>
-  </si>
-  <si>
-    <t>COM11</t>
-  </si>
-  <si>
-    <t>COM12</t>
-  </si>
-  <si>
-    <t>COM13</t>
-  </si>
-  <si>
-    <t>COM14</t>
-  </si>
-  <si>
-    <t>COM15</t>
-  </si>
-  <si>
-    <t>COM16</t>
-  </si>
-  <si>
-    <t>COM17</t>
-  </si>
-  <si>
-    <t>COM18</t>
-  </si>
-  <si>
-    <t>COM19</t>
-  </si>
-  <si>
-    <t>COM20</t>
-  </si>
-  <si>
-    <t>COM21</t>
-  </si>
-  <si>
-    <t>COM22</t>
-  </si>
-  <si>
-    <t>COM23</t>
-  </si>
-  <si>
-    <t>COM24</t>
-  </si>
-  <si>
-    <t>COM25</t>
-  </si>
-  <si>
-    <t>COM26</t>
-  </si>
-  <si>
-    <t>COM27</t>
-  </si>
-  <si>
-    <t>COM28</t>
-  </si>
-  <si>
-    <t>COM29</t>
-  </si>
-  <si>
-    <t>COM30</t>
-  </si>
-  <si>
-    <t>COM31</t>
-  </si>
-  <si>
-    <t>COM32</t>
-  </si>
-  <si>
-    <t>COM33</t>
-  </si>
-  <si>
-    <t>COM34</t>
-  </si>
-  <si>
-    <t>COM35</t>
-  </si>
-  <si>
-    <t>COM36</t>
-  </si>
-  <si>
-    <t>COM37</t>
-  </si>
-  <si>
-    <t>COM38</t>
-  </si>
-  <si>
-    <t>COM39</t>
-  </si>
-  <si>
-    <t>COM40</t>
-  </si>
-  <si>
-    <t>COM41</t>
-  </si>
-  <si>
-    <t>COM42</t>
-  </si>
-  <si>
-    <t>COM43</t>
-  </si>
-  <si>
-    <t>COM44</t>
-  </si>
-  <si>
-    <t>COM45</t>
-  </si>
-  <si>
-    <t>COM46</t>
-  </si>
-  <si>
-    <t>COM47</t>
-  </si>
-  <si>
-    <t>COM48</t>
-  </si>
-  <si>
-    <t>COM49</t>
-  </si>
-  <si>
-    <t>COM50</t>
-  </si>
-  <si>
-    <t>COM51</t>
-  </si>
-  <si>
-    <t>COM52</t>
-  </si>
-  <si>
-    <t>COM53</t>
-  </si>
-  <si>
-    <t>COM54</t>
-  </si>
-  <si>
     <t>Filter_size</t>
   </si>
   <si>
@@ -294,6 +132,168 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>COM001</t>
+  </si>
+  <si>
+    <t>COM002</t>
+  </si>
+  <si>
+    <t>COM003</t>
+  </si>
+  <si>
+    <t>COM004</t>
+  </si>
+  <si>
+    <t>COM005</t>
+  </si>
+  <si>
+    <t>COM006</t>
+  </si>
+  <si>
+    <t>COM007</t>
+  </si>
+  <si>
+    <t>COM008</t>
+  </si>
+  <si>
+    <t>COM009</t>
+  </si>
+  <si>
+    <t>COM010</t>
+  </si>
+  <si>
+    <t>COM011</t>
+  </si>
+  <si>
+    <t>COM012</t>
+  </si>
+  <si>
+    <t>COM013</t>
+  </si>
+  <si>
+    <t>COM014</t>
+  </si>
+  <si>
+    <t>COM015</t>
+  </si>
+  <si>
+    <t>COM016</t>
+  </si>
+  <si>
+    <t>COM017</t>
+  </si>
+  <si>
+    <t>COM018</t>
+  </si>
+  <si>
+    <t>COM019</t>
+  </si>
+  <si>
+    <t>COM020</t>
+  </si>
+  <si>
+    <t>COM021</t>
+  </si>
+  <si>
+    <t>COM022</t>
+  </si>
+  <si>
+    <t>COM023</t>
+  </si>
+  <si>
+    <t>COM024</t>
+  </si>
+  <si>
+    <t>COM025</t>
+  </si>
+  <si>
+    <t>COM026</t>
+  </si>
+  <si>
+    <t>COM027</t>
+  </si>
+  <si>
+    <t>COM028</t>
+  </si>
+  <si>
+    <t>COM029</t>
+  </si>
+  <si>
+    <t>COM030</t>
+  </si>
+  <si>
+    <t>COM031</t>
+  </si>
+  <si>
+    <t>COM032</t>
+  </si>
+  <si>
+    <t>COM033</t>
+  </si>
+  <si>
+    <t>COM034</t>
+  </si>
+  <si>
+    <t>COM035</t>
+  </si>
+  <si>
+    <t>COM036</t>
+  </si>
+  <si>
+    <t>COM037</t>
+  </si>
+  <si>
+    <t>COM038</t>
+  </si>
+  <si>
+    <t>COM039</t>
+  </si>
+  <si>
+    <t>COM040</t>
+  </si>
+  <si>
+    <t>COM041</t>
+  </si>
+  <si>
+    <t>COM042</t>
+  </si>
+  <si>
+    <t>COM043</t>
+  </si>
+  <si>
+    <t>COM044</t>
+  </si>
+  <si>
+    <t>COM045</t>
+  </si>
+  <si>
+    <t>COM046</t>
+  </si>
+  <si>
+    <t>COM047</t>
+  </si>
+  <si>
+    <t>COM048</t>
+  </si>
+  <si>
+    <t>COM049</t>
+  </si>
+  <si>
+    <t>COM050</t>
+  </si>
+  <si>
+    <t>COM051</t>
+  </si>
+  <si>
+    <t>COM052</t>
+  </si>
+  <si>
+    <t>COM053</t>
+  </si>
+  <si>
+    <t>COM054</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -697,19 +697,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>4</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>4</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>4</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>4</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>4</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>4</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>4</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>3</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>3</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>4</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>4</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>4</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>4</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>4</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>4</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>4</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>4</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>4</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>3</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>3</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>3</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>3</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>3</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>4</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>4</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>4</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>4</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>4</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>

--- a/inst/extdata/project_info.xlsx
+++ b/inst/extdata/project_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swaglife/XRF/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A43107-A1BB-DD40-A905-E73B9A0A87AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF8A25-A574-8F4A-AE8E-B4365DACFC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="26340" windowHeight="13920" xr2:uid="{C35C691E-D9CF-F84A-96F1-AD77D291FD53}"/>
   </bookViews>
